--- a/Lab 2/Lab2Data.xlsx
+++ b/Lab 2/Lab2Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6caefec86861ae7d/Documents/GitHub/Python-Code/Lab 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="114_{DD8DF9FF-E805-4AF4-8531-5920BA1583D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="114_{DD8DF9FF-E805-4AF4-8531-5920BA1583D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{84060BCE-8603-400D-A581-57028ABCB2F4}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17604" windowHeight="11664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trial 1" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,225 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="31">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -446,7 +664,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C86" sqref="C1:C1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -5856,7 +6076,20 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="between">
+      <formula>0.9</formula>
+      <formula>MAX($C:$C)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="notBetween">
+      <formula>-2</formula>
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5864,7 +6097,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H155"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C52" sqref="C1:C1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -9896,6 +10131,18 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="between">
+      <formula>0.9</formula>
+      <formula>MAX($C:$C)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="notBetween">
+      <formula>-2</formula>
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9904,7 +10151,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H148"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="C106" sqref="C1:C1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -13754,6 +14003,18 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="notBetween">
+      <formula>-2</formula>
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="between">
+      <formula>0.9</formula>
+      <formula>MAX($C:$C)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>